--- a/SPAN/SPAN.xlsx
+++ b/SPAN/SPAN.xlsx
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.833333333333333</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13" t="n">
         <v>30</v>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.166666666666666</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
         <v>30</v>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.666666666666666</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" t="n">
         <v>30</v>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1801,14 +1801,14 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" t="n">
         <v>30</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" t="n">
         <v>30</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4.166666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">

--- a/SPAN/SPAN.xlsx
+++ b/SPAN/SPAN.xlsx
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
         <v>30</v>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="13">

--- a/SPAN/SPAN.xlsx
+++ b/SPAN/SPAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -573,30 +588,34 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -623,12 +642,21 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.5</v>
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,7 +670,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -659,7 +687,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -676,13 +704,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -709,12 +741,21 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.666666666666667</v>
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -728,7 +769,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -736,16 +777,28 @@
           <t>23946</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8:00am</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10:15am</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -762,18 +815,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Vejar, I</t>
+          <t>Navarro, B</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -789,18 +842,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>4.666666666666666</v>
+        <v>1.333333333333333</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -814,7 +872,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -822,16 +880,28 @@
           <t>23948</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10:00am</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12:15pm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M W</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>30</v>
@@ -848,18 +918,18 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Navarro, B</t>
+          <t>Huesca, C</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -875,18 +945,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -900,7 +975,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -917,7 +992,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -934,18 +1009,18 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Linares, M</t>
+          <t>Vejar, I</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -967,12 +1042,21 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -986,7 +1070,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1003,7 +1087,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>
@@ -1020,13 +1104,13 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1053,12 +1137,21 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.666666666666666</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1072,7 +1165,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1080,16 +1173,28 @@
           <t>24591</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10:00am</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12:15pm</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K8" t="n">
         <v>30</v>
@@ -1106,18 +1211,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Trujillo, Y</t>
+          <t>Vejar, I</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1133,18 +1238,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>3.666666666666667</v>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6.999999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1158,7 +1268,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1187,7 +1297,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>30</v>
@@ -1204,18 +1314,18 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Correa, R</t>
+          <t>Hernandez, I</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1231,18 +1341,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1256,7 +1371,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1273,7 +1388,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1290,13 +1405,13 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1323,12 +1438,21 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1342,7 +1466,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1359,7 +1483,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>30</v>
@@ -1376,18 +1500,18 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Vejar, I</t>
+          <t>Linares, M</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1409,12 +1533,21 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1428,12 +1561,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20832</t>
+          <t>27923</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1445,7 +1578,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
         <v>30</v>
@@ -1462,18 +1595,18 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Cifuentes, O</t>
+          <t>Navarro, B</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1495,12 +1628,21 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.333333333333333</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1514,12 +1656,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20834</t>
+          <t>20832</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1531,7 +1673,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>30</v>
@@ -1548,18 +1690,18 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>28</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Navarro, B</t>
+          <t>Ugalde, M</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1581,12 +1723,21 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.833333333333333</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1600,12 +1751,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26981</t>
+          <t>20834</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1617,7 +1768,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>30</v>
@@ -1634,18 +1785,18 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Hernandez, I</t>
+          <t>Huesca, C</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1667,12 +1818,21 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.166666666666666</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1686,36 +1846,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fifteen Week B5 Friday Session (2/4/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27923</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9:00am</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2:20pm</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
+          <t>32422</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>30</v>
@@ -1732,18 +1880,18 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Cuesta, Y</t>
+          <t>Arce, C</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1761,16 +1909,25 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.333333333333333</v>
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1784,12 +1941,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>32422</t>
+          <t>26981</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1801,14 +1958,14 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>30</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1818,22 +1975,18 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Ugalde, M</t>
+          <t>Cifuentes, O</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1855,12 +2008,21 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.833333333333333</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1874,7 +2036,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1898,22 +2060,22 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1946,11 +2108,20 @@
       </c>
       <c r="V17" t="n">
         <v>4.166666666666666</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1964,7 +2135,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1981,7 +2152,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K18" t="n">
         <v>25</v>
@@ -1998,17 +2169,13 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2035,12 +2202,21 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>4.5</v>
+        <v>3.833333333333333</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2054,7 +2230,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2071,7 +2247,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K19" t="n">
         <v>30</v>
@@ -2088,13 +2264,13 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2121,12 +2297,21 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>3.333333333333333</v>
+        <v>2.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2140,12 +2325,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29345</t>
+          <t>32872</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2157,10 +2342,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2169,23 +2354,23 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Ugalde, M</t>
+          <t>Huesca, C</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2207,12 +2392,21 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2221,17 +2415,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SPAN 112</t>
+          <t>SPAN 111</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20569</t>
+          <t>29345</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -2243,10 +2437,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2260,18 +2454,18 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Huesca, C</t>
+          <t>Ugalde, M</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2293,12 +2487,21 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>3.166666666666667</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2307,17 +2510,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SPAN 201</t>
+          <t>SPAN 112</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20835</t>
+          <t>20569</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2329,10 +2532,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2346,18 +2549,18 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Trujillo, Y</t>
+          <t>Huesca, C</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2379,12 +2582,21 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>2.5</v>
+        <v>1.333333333333333</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2393,17 +2605,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SPAN 202</t>
+          <t>SPAN 201</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>31822</t>
+          <t>20835</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2415,10 +2627,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2432,18 +2644,18 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Cabuto, F</t>
+          <t>Trujillo, Y</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2452,7 +2664,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2465,12 +2677,21 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>1.066666666666667</v>
+        <v>1.833333333333333</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2479,44 +2700,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SPAN 223</t>
+          <t>SPAN 202</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sixteen A2 Saturday Session (1/15/2022 - 5/14/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24593</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9:00am</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>12:05pm</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
+          <t>31822</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>LA213</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2530,18 +2739,18 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Bedolla, J</t>
+          <t>Cabuto, F</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2550,7 +2759,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2559,16 +2768,25 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2577,32 +2795,44 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SPAN 245</t>
+          <t>SPAN 223</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Sixteen A2 Saturday Session (1/14/2023 - 5/13/2023)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20570</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+          <t>24593</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9:00am</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12:05pm</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2616,18 +2846,18 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Arce, C</t>
+          <t>Bedolla, J</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2643,13 +2873,208 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SPAN 245</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20570</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>35</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Arce, C</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>54</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>Online Course</t>
         </is>
       </c>
-      <c r="V25" t="n">
-        <v>3.2</v>
+      <c r="V26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SPAN 260</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32874</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>35</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Cabuto, F</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>54</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/SPAN/SPAN.xlsx
+++ b/SPAN/SPAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -651,12 +651,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>1.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -853,12 +853,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1051,12 +1051,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
@@ -1146,12 +1146,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Vejar, I</t>
+          <t>Trujillo, Y</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>30</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
@@ -1352,12 +1352,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
@@ -1447,12 +1447,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>6.999999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
         <v>30</v>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -1637,12 +1637,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
         <v>30</v>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>5</v>
@@ -2017,12 +2017,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2121,7 +2121,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
         <v>25</v>
@@ -2169,13 +2169,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2202,7 +2206,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>3.833333333333333</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="W18" t="n">
         <v>4.166666666666666</v>
@@ -2211,12 +2215,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2225,7 +2229,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SPAN 111</t>
+          <t>SPAN 102</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2235,22 +2239,34 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22682</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>33382</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10:00am</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12:15pm</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2264,7 +2280,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -2275,7 +2291,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Ugalde, M</t>
+          <t>Vejar, I</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2291,27 +2307,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="X19" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2330,7 +2342,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32872</t>
+          <t>22682</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2342,10 +2354,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2354,23 +2366,23 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Huesca, C</t>
+          <t>Ugalde, M</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2392,21 +2404,21 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>0.1666666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2420,12 +2432,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29345</t>
+          <t>32872</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -2437,10 +2449,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2449,23 +2461,23 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Ugalde, M</t>
+          <t>Huesca, C</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2487,21 +2499,21 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2510,17 +2522,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SPAN 112</t>
+          <t>SPAN 111</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20569</t>
+          <t>29345</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -2532,10 +2544,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2549,7 +2561,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2560,7 +2572,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Huesca, C</t>
+          <t>Ugalde, M</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2582,21 +2594,21 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>1.333333333333333</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W22" t="n">
-        <v>1.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="X22" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2605,7 +2617,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SPAN 201</t>
+          <t>SPAN 112</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2615,7 +2627,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20835</t>
+          <t>20569</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2627,35 +2639,39 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Trujillo, Y</t>
+          <t>Huesca, C</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2677,21 +2693,21 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>1.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W23" t="n">
-        <v>4.166666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X23" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2700,7 +2716,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SPAN 202</t>
+          <t>SPAN 201</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2710,7 +2726,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>31822</t>
+          <t>20835</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2725,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2739,7 +2755,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2750,7 +2766,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Cabuto, F</t>
+          <t>Trujillo, Y</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2759,7 +2775,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2772,13 +2788,13 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="X24" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y24" t="n">
         <v>6</v>
@@ -2786,7 +2802,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2795,44 +2811,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SPAN 223</t>
+          <t>SPAN 202</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sixteen A2 Saturday Session (1/14/2023 - 5/13/2023)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24593</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>9:00am</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>12:05pm</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Sa</t>
-        </is>
-      </c>
+          <t>31822</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2846,7 +2850,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -2857,7 +2861,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Bedolla, J</t>
+          <t>Cabuto, F</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2866,30 +2870,34 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
           <t>Books</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2898,32 +2906,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SPAN 245</t>
+          <t>SPAN 223</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+          <t>Sixteen A2 Saturday Session (1/14/2023 - 5/13/2023)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20570</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>24593</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9:00am</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>12:05pm</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2937,7 +2957,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2948,7 +2968,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Arce, C</t>
+          <t>Bedolla, J</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2964,27 +2984,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="X26" t="n">
         <v>0.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2993,7 +3009,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SPAN 260</t>
+          <t>SPAN 245</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3003,7 +3019,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>32874</t>
+          <t>20570</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -3015,7 +3031,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K27" t="n">
         <v>35</v>
@@ -3032,7 +3048,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3043,7 +3059,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Cabuto, F</t>
+          <t>Arce, C</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -3065,7 +3081,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="W27" t="n">
         <v>3.5</v>
@@ -3074,7 +3090,102 @@
         <v>0.2</v>
       </c>
       <c r="Y27" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SPAN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SPAN 260</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32874</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>35</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Cabuto, F</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>54</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W28" t="n">
         <v>3.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
